--- a/results/mobile_net_tl/classification_report.xlsx
+++ b/results/mobile_net_tl/classification_report.xlsx
@@ -475,16 +475,16 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>0.4736842105263158</v>
+        <v>0.5079365079365079</v>
       </c>
       <c r="F2" t="n">
-        <v>0.6428571428571429</v>
+        <v>0.6736842105263158</v>
       </c>
     </row>
     <row r="3">
@@ -497,16 +497,16 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9230769230769231</v>
+        <v>0.9375</v>
       </c>
       <c r="E3" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.6</v>
       </c>
       <c r="F3" t="n">
-        <v>0.7741935483870968</v>
+        <v>0.7317073170731707</v>
       </c>
     </row>
     <row r="4">
@@ -519,16 +519,16 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="D4" t="n">
-        <v>0.625</v>
+        <v>0.5581395348837209</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8823529411764706</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="F4" t="n">
-        <v>0.7317073170731707</v>
+        <v>0.6956521739130435</v>
       </c>
     </row>
     <row r="5">
@@ -541,16 +541,16 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9</v>
+        <v>0.9032258064516129</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9473684210526315</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9230769230769231</v>
+        <v>0.9180327868852459</v>
       </c>
     </row>
     <row r="6">
@@ -563,16 +563,16 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7111111111111111</v>
+        <v>0.7076923076923077</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8648648648648649</v>
+        <v>0.8214285714285714</v>
       </c>
       <c r="F6" t="n">
-        <v>0.7804878048780488</v>
+        <v>0.7603305785123967</v>
       </c>
     </row>
     <row r="7">
@@ -585,16 +585,16 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="n">
-        <v>0.4117647058823529</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="E7" t="n">
-        <v>0.875</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="F7" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5161290322580645</v>
       </c>
     </row>
   </sheetData>
